--- a/src/output.xlsx
+++ b/src/output.xlsx
@@ -397,62 +397,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Name</v>
-      </c>
-      <c r="B1" t="str">
-        <v>ProductDescription</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Bullet</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Code</v>
-      </c>
-    </row>
-    <row r="2" xml:space="preserve">
-      <c r="A2" t="str">
-        <v>Body Lily-Negro-S</v>
-      </c>
-      <c r="B2" t="str">
-        <v>¡Deslumbra con elegancia en nuestro body lily! Diseñado con una silueta ajustada que realza tus curvas y un favorecedor escote en triángulo con cargaderas en forma de V, este body combina estilo y comodidad a la perfección. Ideal para destacar en cualquier ocasión con un toque de sofisticación y modernidad.</v>
-      </c>
-      <c r="C2" t="str" xml:space="preserve">
-        <v xml:space="preserve">Realza tus curvas con un diseño ajustado
-Favorados escote en triángulo con cargaderas
-Combina estilo y comodidad</v>
-      </c>
-      <c r="D2" t="str">
-        <v>&lt;body&gt;&lt;h1&gt;Body Lily-Negro-S&lt;/h1&gt;&lt;ul&gt;&lt;li&gt;&lt;strong&gt;Realza tus curvas:&lt;/strong&gt; Diseño ajustado.&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Favorados escote en triángulo:&lt;/strong&gt; Cargaderas en forma de V.&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Combina estilo y comodidad:&lt;/strong&gt;&lt;/li&gt;&lt;/ul&gt;&lt;/body&gt;</v>
-      </c>
-    </row>
-    <row r="3" xml:space="preserve">
-      <c r="A3" t="str">
-        <v>Vestido Largo Reverie-Negro-L</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Explora la sofisticación con nuestro Vestido Largo Reverie, con una silueta semi ajustada, un escote profundo en V adornado con tiras cruzadas en la cintura, manga larga y una falda con una seductora abertura en el frente. Encarna el estilo con este diseño único y cautivador.</v>
-      </c>
-      <c r="C3" t="str" xml:space="preserve">
-        <v xml:space="preserve">Vestido largo Reverie-Negro-L
-Silueta semi ajustada para resaltar las curvas
-Escote profundo en V adornado con tiras cruzadas
-Manga larga
-Faldas con seductora abertura en el frente</v>
-      </c>
-      <c r="D3" t="str">
-        <v>&lt;body&gt;&lt;h1&gt;Vestido Largo Reverie-Negro-L&lt;/h1&gt;&lt;ul&gt;&lt;li&gt;&lt;strong&gt;Vestido largo Reverie-Negro-L:&lt;/strong&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Silueta semi ajustada:&lt;/strong&gt; Resalta las curvas.&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Escote profundo en V adornado con tiras cruzadas:&lt;/strong&gt; Agrega sofisticación.&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Manga larga:&lt;/strong&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Faldas con seductora abertura en el frente:&lt;/strong&gt;&lt;/li&gt;&lt;/ul&gt;&lt;/body&gt;</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1"/>
   </ignoredErrors>
 </worksheet>
 </file>